--- a/functions/views/test.xlsx
+++ b/functions/views/test.xlsx
@@ -20,33 +20,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">USN</t>
+  </si>
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">USN</t>
-  </si>
-  <si>
     <t xml:space="preserve">Room</t>
   </si>
   <si>
     <t xml:space="preserve">Seat No</t>
   </si>
   <si>
+    <t xml:space="preserve">1si16cs01</t>
+  </si>
+  <si>
     <t xml:space="preserve">KPS</t>
   </si>
   <si>
+    <t xml:space="preserve">1si16cs02</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADI</t>
   </si>
   <si>
+    <t xml:space="preserve">1si16cs03</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAT</t>
   </si>
   <si>
+    <t xml:space="preserve">1si16cs04</t>
+  </si>
+  <si>
     <t xml:space="preserve">GS</t>
   </si>
   <si>
+    <t xml:space="preserve">1si16cs05</t>
+  </si>
+  <si>
     <t xml:space="preserve">NIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1si16cs06</t>
   </si>
   <si>
     <t xml:space="preserve">SHK</t>
@@ -64,6 +82,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -123,8 +142,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -148,7 +171,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -171,11 +194,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>46</v>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -185,11 +208,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
@@ -199,11 +222,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>66</v>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -213,11 +236,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>43</v>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
@@ -227,11 +250,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>69</v>
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
@@ -241,11 +264,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>10</v>
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>

--- a/functions/views/test.xlsx
+++ b/functions/views/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t xml:space="preserve">USN</t>
   </si>
@@ -28,10 +28,49 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seat No</t>
+    <t xml:space="preserve">sub0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seatno0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seatno1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seatno2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time2</t>
   </si>
   <si>
     <t xml:space="preserve">1si16cs01</t>
@@ -40,49 +79,91 @@
     <t xml:space="preserve">KPS</t>
   </si>
   <si>
+    <t xml:space="preserve">oops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-07-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-07-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-07-2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">1si16cs02</t>
   </si>
   <si>
     <t xml:space="preserve">ADI</t>
   </si>
   <si>
+    <t xml:space="preserve">s2</t>
+  </si>
+  <si>
     <t xml:space="preserve">1si16cs03</t>
   </si>
   <si>
     <t xml:space="preserve">NAT</t>
   </si>
   <si>
+    <t xml:space="preserve">s3</t>
+  </si>
+  <si>
     <t xml:space="preserve">1si16cs04</t>
   </si>
   <si>
     <t xml:space="preserve">GS</t>
   </si>
   <si>
+    <t xml:space="preserve">s4</t>
+  </si>
+  <si>
     <t xml:space="preserve">1si16cs05</t>
   </si>
   <si>
     <t xml:space="preserve">NIK</t>
   </si>
   <si>
+    <t xml:space="preserve">s5</t>
+  </si>
+  <si>
     <t xml:space="preserve">1si16cs06</t>
   </si>
   <si>
     <t xml:space="preserve">SHK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polsci</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="HH:MM:SS\ AM/PM"/>
   </numFmts>
-  <fonts count="4">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+  <fonts count="16">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,16 +180,135 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -116,8 +316,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -141,8 +356,59 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,15 +417,96 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -168,10 +515,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -192,89 +539,362 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>15</v>
+      <c r="F2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0.583333333333333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>12</v>
+      <c r="F3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0.583333333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>10</v>
+      <c r="F4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0.583333333333333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="F5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0.583333333333333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="F6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0.583333333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>30</v>
+      <c r="F7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0.583333333333333</v>
       </c>
     </row>
   </sheetData>
